--- a/similarities/split_global/harmonic_similarity_timestamps_371.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_371.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:04:14.260000', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:00:08.740000', '0:00:17.660000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:00:42.900000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-135#t=30.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G#/C', 'D#', 'G#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['Ab/5', 'Eb', 'Ab/5']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:00:51.600000', '0:00:55.800000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+          <t>('0:00:18.978000', '0:00:24.727000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=51.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000'), ('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:09.940000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:01:42.400000', '0:02:01.440000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:30.800000', '0:00:45.300000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=30.8</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'A#:7', 'D#:maj'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:43.540000', '0:01:00'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000'), ('0:03:46.620000', '0:03:52.800000'), ('0:00:20.920000', '0:00:26.040000')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>['D/5', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D/5', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:51.280000', '0:02:04.160000')]</t>
+          <t>('0:00:51.752040', '0:01:07.170090')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
+          <t>('0:02:06.990000', '0:02:23.352000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=111.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=51.75204</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=126.99</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G#:min', 'D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000'), ('0:00:21.940000', '0:00:27.520000')]</t>
+          <t>('0:00:02.980000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000'), ('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:00:07.600000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=2.98</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=7.6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:26.140430')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:00:10.360000', '0:00:18.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>isophonics_197</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A', 'F#:min', 'D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['Ab/7', 'F:min', 'Db:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:06.774988', '0:00:12.022698')]</t>
+          <t>('0:00:08.367506', '0:00:19.977483')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:57.388000', '0:01:02.385000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-197#t=8.367506</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=57.388</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>jaah_19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>jaah_84</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab:maj7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:36.420000', '0:00:39.460000'), ('0:00:56.800000', '0:01:01.480000')]</t>
+          <t>('0:00:01.330000', '0:00:03.530000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:30.080000', '0:01:42'), ('0:01:38.560000', '0:01:51.740000')]</t>
+          <t>('0:00:22.170000', '0:00:31.310000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=36.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=56.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=1.33</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=98.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-84#t=22.17</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:26.120000'), ('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:39.724104', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>jaah_84</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>jaah_12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db:min']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B']]</t>
+          <t>['G:min7', 'C:7', 'F:maj7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:38.430000')]</t>
+          <t>('0:00:22.170000', '0:00:31.310000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:03.080000', '0:00:11.380000')]</t>
+          <t>('0:00:22.210000', '0:00:25.020000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-84#t=22.17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=3.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-12#t=22.21</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
